--- a/biology/Histoire de la zoologie et de la botanique/Achille_Costa/Achille_Costa.xlsx
+++ b/biology/Histoire de la zoologie et de la botanique/Achille_Costa/Achille_Costa.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Achille Costa (né le 10 août 1823 (ou 1828) à Lecce et mort le 17 novembre 1898 (ou 1899) à Rome) est un entomologiste italien.
 </t>
@@ -511,7 +523,9 @@
           <t>Biographie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Après l’obtention de son titre de docteur en médecine, Achille Costa succède à son père, Oronzio Gabriele Costa (1787-1867), à la chaire de zoologie de l’université de Naples en 1860. Il est l’un des premiers naturalistes à étudies la faune entomologique du sud de l’Italie, de la Sicile et de Sardaigne. Il est le vice-président de la Société entomologique d'Italie de 1879 à 1898.
 Sans disciple, ni élève, ses travaux ne sont pas poursuivis et sa collection est négligée durant des années. Celle-ci, riche d’environ 20 000 spécimens, est conservée par le Musée de zoologie (en) de l’université de Naples Federico II. Seul, le père Longinos Navás (1858-1938), s’intéresse à sa collection dans les années 1910. Il faut attendre les travaux de Roberto Antonio Pantaleoni (1999, 2005) qui permettent d’identifier et de conserver certains des types décrits par Costa.
@@ -543,7 +557,9 @@
           <t>Liste partielle des publications</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t>1843 : Esposizione sommaria delle osservazioni raccolte durante l’anno 1842 intorno allo sviluppo ed apparizione successiva degli insetti nei contorni di Napoli. - Annali dell’Accademia degli Aspiranti Naturalisti, [série I] volume I : 37-68, 1 pl.
 1846 : Osservazioni intorno la Entomologia del Matese da servire alla Geografia Entomologica del Regno. Annali dell’Accademia degli Aspiranti Naturalisti, [série I] volume III : 81-94.
@@ -562,19 +578,19 @@
 1874 : Una peregrinazione zoologica su’ monti dell’Alburno. - Rendiconto dell’Accademia delle Scienze Fisiche e Matematiche (Sezione della Società Reale di Napoli), Anno XIII fasc. 9° : 129-135.
 1877 : Relazione di un viaggio eseguito nelle Calabrie nella state del 1876, per ricerche zoologiche [Sunto dell’Autore]. Rendiconto dell’Accademia delle Scienze Fisiche e Matematiche (Sezione della Società Reale di Napoli), Anno XVI fasc. 2° [febbraio 1877] : 40-43.
 1877 : Degl’Insetti che attaccano l’albero ed il frutto dell’olivo del ciliegio del pero del melo del castagno e della vite e le semenze del pisello della lenticchia della fava e del grano loro descrizione e biologia danni che arrecano e mezzi per distruggerli. Edizione seconda riveduta ed accresciuta dallo stesso autore. Napoli pei tipi del Commendatore G. Nobile : 340 p., 13 pl.
-1881 : Relazione di un viaggio nelle Calabrie per ricerche zoologiche fatto nella state del 1876. Atti della Reale Accademia delle Scienze Fisiche e Matematiche di Napoli Serie 1a [1882] Vol. IX (6), 63 p.
-1882 : Notizie ed osservazioni sulla Geo-Fauna sarda Memoria Prima Risultamento di ricerche fatte in Sardegna nel Settembre 1881. Atti della Reale Accademia delle Scienze Fisiche e Matematiche di Napoli [1882] Vol. IX (11), 41 p.
+1881 : Relazione di un viaggio nelle Calabrie per ricerche zoologiche fatto nella state del 1876. Atti della Reale Accademia delle Scienze Fisiche e Matematiche di Napoli Serie 1a  Vol. IX (6), 63 p.
+1882 : Notizie ed osservazioni sulla Geo-Fauna sarda Memoria Prima Risultamento di ricerche fatte in Sardegna nel Settembre 1881. Atti della Reale Accademia delle Scienze Fisiche e Matematiche di Napoli  Vol. IX (11), 41 p.
 1882 : Rapporto preliminare e sommario sulle ricerche zoologiche fatte in Sardegna durante la primavera del 1882. Rendiconto dell’Accademia delle Scienze Fisiche e Matematiche (Sezione della Società Reale di Napoli), Anno XXI fasc. 10° (ottobre 1882) : 189-201.
-1883 : Notizie ed osservazioni sulla Geo-Fauna sarda Memoria Seconda Risultamento di ricerche fatte in Sardegna nella primavera del 1882. Atti della Reale Accademia delle Scienze Fisiche e Matematiche di Napoli Serie 2a [1888] Vol. I [fasc. 2], 109 p.
+1883 : Notizie ed osservazioni sulla Geo-Fauna sarda Memoria Seconda Risultamento di ricerche fatte in Sardegna nella primavera del 1882. Atti della Reale Accademia delle Scienze Fisiche e Matematiche di Napoli Serie 2a  Vol. I [fasc. 2], 109 p.
 1884 : Diagnosi di nuovi Artropodi trovati in Sardegna. Bullettino della Società Entomologica Italiana, 15 (4) : 332-341.
 1884 : Nota intorno i Nevrotteri della Sardegna. Rendiconto dell’Accademia delle Scienze Fisiche e Matematiche (Sezione della Società Reale di Napoli), Anno XXIII fasc. 2° (marzo 1884) : 20-21. [réédité dans la Rivista scientifico-industriale delle principali scoperte ed invenzioni fatte nelle scienze e nelle industrie, Firenze, Anno Sedicesimo (31 marzo e 15 aprile) : 122-124].
 1884 : Notizie ed osservazioni sulla Geo-Fauna sarda; memoria terza [Sunto dell’Autore]. Rendiconto dell’Accademia delle Scienze Fisiche e Matematiche (Sezione della Società Reale di Napoli), Anno XXIII (maggio 1884) : 80-81.
-1884 : Notizie ed osservazioni sulla Geo-Fauna sarda Memoria Terza Risultamento di ricerche fatte in Sardegna nella estate del 1883. Atti della Reale Accademia delle Scienze Fisiche e Matematiche di Napoli Serie 2a [1888] Vol. I (9), 64 p.
+1884 : Notizie ed osservazioni sulla Geo-Fauna sarda Memoria Terza Risultamento di ricerche fatte in Sardegna nella estate del 1883. Atti della Reale Accademia delle Scienze Fisiche e Matematiche di Napoli Serie 2a  Vol. I (9), 64 p.
 1884 : Notizie ed osservazioni sulla Fauna Sarda. Rivista scientifico-industriale delle principali scoperte ed invenzioni fatte nelle scienze e nelle industrie, Firenze, Anno Sedicesimo (15e 30 settembre) : 300-303.
-1884 : Miscellanea entomologica. Memoria prima. Atti della Reale Accademia delle Scienze Fisiche e Matematiche di Napoli, Serie 2a [1888] Vol. I (10), 11 p., 1 pl.
-1885 : Notizie ed osservazioni sulla Geo-Fauna sarda Memoria Quarta. Atti della Reale Accademia delle Scienze Fisiche e Matematiche di Napoli, Serie 2a [1888] Vol. I (13), 31 p.
+1884 : Miscellanea entomologica. Memoria prima. Atti della Reale Accademia delle Scienze Fisiche e Matematiche di Napoli, Serie 2a  Vol. I (10), 11 p., 1 pl.
+1885 : Notizie ed osservazioni sulla Geo-Fauna sarda Memoria Quarta. Atti della Reale Accademia delle Scienze Fisiche e Matematiche di Napoli, Serie 2a  Vol. I (13), 31 p.
 1885 : Diagnosi di nuovi Artropodi della Sardegna. Bullettino della Società Entomologica Italiana, 17 (3/4) : 240-255.
-1886 : Notizie ed osservazioni sulla Geo-Fauna sarda Memoria Quinta Risultamento delle ricerche fatte in maggio 1885. Atti della Reale Accademia delle Scienze Fisiche e Matematiche di Napoli Serie 2 a [1888] Vol. II (7), 24 p.
+1886 : Notizie ed osservazioni sulla Geo-Fauna sarda Memoria Quinta Risultamento delle ricerche fatte in maggio 1885. Atti della Reale Accademia delle Scienze Fisiche e Matematiche di Napoli Serie 2 a  Vol. II (7), 24 p.
 1886 : Notizie ed osservazioni sulla Geo-Fauna sarda Memoria Sesta Risultamento delle ricerche fatte in Sardegna nella State del 1885. - Atti della Reale Accademia delle Scienze Fisiche e Matematiche di Napoli Serie 2a Vol. II (8), 40 p.
 1874 : Fauna Salentina. Tip. Ed. Salentina, Lecce : 624 p.</t>
         </is>
@@ -604,7 +620,9 @@
           <t>Sources</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t>Cesare Conci et Roberto Poggi (1996), Iconography of Italian Entomologists, with essential biographical data. Memorie della Società entomologica Italiana, 75 : 159-382.
 Anthony Musgrave (1932). Bibliography of Australian Entomology, 1775-1930, with biographical notes on authors and collectors, Royal Zoological Society of News South Wales (Sydney) : viii + 380.
